--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>398565396921@gmail.com</t>
+          <t>398565693@gmail.com</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">

--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -27,9 +27,114 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -43,104 +148,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -154,17 +163,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -178,187 +178,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,56 +369,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,16 +391,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +451,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,137 +489,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,10 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -943,15 +939,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -995,26 +991,31 @@
           <t>密码</t>
         </is>
       </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>地区</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>智利</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>398565693@gmail.com</t>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>10000000019@uitest.com</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>1000008001</t>
+          <t>1200008349</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -1022,33 +1023,18 @@
           <t>邀请码</t>
         </is>
       </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>北马里亚纳群岛</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>398565396922@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>1200008309</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>MNP</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>直客</t>
-        </is>
-      </c>
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="0" t="n"/>
+      <c r="E3" s="0" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n"/>
@@ -1063,7 +1049,6 @@
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
       <c r="E5" s="0" t="n"/>
-      <c r="F5" s="0" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n"/>
@@ -1157,17 +1142,9 @@
       <c r="E18" s="0" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n"/>
-      <c r="B19" s="0" t="n"/>
-      <c r="C19" s="0" t="n"/>
-      <c r="D19" s="0" t="n"/>
       <c r="E19" s="0" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="n"/>
-      <c r="B20" s="0" t="n"/>
-      <c r="C20" s="0" t="n"/>
-      <c r="D20" s="0" t="n"/>
       <c r="E20" s="0" t="n"/>
     </row>
     <row r="21">
@@ -1185,53 +1162,9 @@
       <c r="E22" s="0" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="n"/>
-      <c r="B23" s="0" t="n"/>
-      <c r="C23" s="0" t="n"/>
-      <c r="D23" s="0" t="n"/>
       <c r="E23" s="0" t="n"/>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="n"/>
-      <c r="B24" s="0" t="n"/>
-      <c r="C24" s="0" t="n"/>
-      <c r="D24" s="0" t="n"/>
-      <c r="E24" s="0" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="n"/>
-      <c r="B25" s="0" t="n"/>
-      <c r="C25" s="0" t="n"/>
-      <c r="D25" s="0" t="n"/>
-      <c r="E25" s="0" t="n"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="0" t="n"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="0" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="n"/>
-      <c r="B28" s="0" t="n"/>
-      <c r="C28" s="0" t="n"/>
-      <c r="D28" s="0" t="n"/>
-      <c r="E28" s="0" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="n"/>
-      <c r="B29" s="0" t="n"/>
-      <c r="C29" s="0" t="n"/>
-      <c r="D29" s="0" t="n"/>
-      <c r="E29" s="0" t="n"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="0" t="n"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" tooltip="mailto:845484876652@qq.com" display="845484876652@qq.com" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -27,7 +27,136 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -39,135 +168,6 @@
       <sz val="13"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,187 +178,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,6 +369,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -391,48 +441,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,24 +469,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,143 +489,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -939,15 +945,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C8" sqref="D9 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -996,38 +1002,39 @@
           <t>地区</t>
         </is>
       </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>中国</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>10000000019@uitest.com</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>1200008349</t>
+          <t>巴林</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>10000000026@uitest.com</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>1200008347</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>BHR</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>邀请码</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>中国</t>
-        </is>
-      </c>
+          <t>专属链接</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n"/>
@@ -1128,43 +1135,32 @@
       <c r="E16" s="0" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n"/>
-      <c r="B17" s="0" t="n"/>
-      <c r="C17" s="0" t="n"/>
-      <c r="D17" s="0" t="n"/>
       <c r="E17" s="0" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="n"/>
-      <c r="B18" s="0" t="n"/>
-      <c r="C18" s="0" t="n"/>
-      <c r="D18" s="0" t="n"/>
       <c r="E18" s="0" t="n"/>
     </row>
     <row r="19">
+      <c r="A19" s="0" t="n"/>
+      <c r="B19" s="0" t="n"/>
+      <c r="C19" s="0" t="n"/>
+      <c r="D19" s="0" t="n"/>
       <c r="E19" s="0" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" s="0" t="n"/>
+      <c r="B20" s="0" t="n"/>
+      <c r="C20" s="0" t="n"/>
+      <c r="D20" s="0" t="n"/>
       <c r="E20" s="0" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="n"/>
-      <c r="B21" s="0" t="n"/>
-      <c r="C21" s="0" t="n"/>
-      <c r="D21" s="0" t="n"/>
       <c r="E21" s="0" t="n"/>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="n"/>
-      <c r="B22" s="0" t="n"/>
-      <c r="C22" s="0" t="n"/>
-      <c r="D22" s="0" t="n"/>
-      <c r="E22" s="0" t="n"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="0" t="n"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" tooltip="mailto:10000000017@uitest.com" display="10000000017@uitest.com" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -26,113 +26,107 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -146,26 +140,32 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -178,187 +178,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,56 +369,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,7 +391,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,7 +415,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +454,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,149 +489,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -945,15 +939,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="D9 C8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1014,16 +1008,12 @@
           <t>巴林</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>10000000026@uitest.com</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>1200008347</t>
-        </is>
-      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>10000000039@uitest.com</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n"/>
       <c r="D2" s="0" t="inlineStr">
         <is>
           <t>BHR</t>
@@ -1037,11 +1027,32 @@
       <c r="G2" s="0" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="n"/>
-      <c r="B3" s="0" t="n"/>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>10000000040@uitest.com</t>
+        </is>
+      </c>
       <c r="C3" s="0" t="n"/>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="n"/>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>CHN</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>邀请码</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n"/>
@@ -1114,17 +1125,9 @@
       <c r="E13" s="0" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n"/>
-      <c r="B14" s="0" t="n"/>
-      <c r="C14" s="0" t="n"/>
-      <c r="D14" s="0" t="n"/>
       <c r="E14" s="0" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n"/>
-      <c r="B15" s="0" t="n"/>
-      <c r="C15" s="0" t="n"/>
-      <c r="D15" s="0" t="n"/>
       <c r="E15" s="0" t="n"/>
     </row>
     <row r="16">
@@ -1135,32 +1138,16 @@
       <c r="E16" s="0" t="n"/>
     </row>
     <row r="17">
+      <c r="A17" s="0" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="0" t="n"/>
       <c r="E17" s="0" t="n"/>
     </row>
     <row r="18">
       <c r="E18" s="0" t="n"/>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="n"/>
-      <c r="B19" s="0" t="n"/>
-      <c r="C19" s="0" t="n"/>
-      <c r="D19" s="0" t="n"/>
-      <c r="E19" s="0" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="n"/>
-      <c r="B20" s="0" t="n"/>
-      <c r="C20" s="0" t="n"/>
-      <c r="D20" s="0" t="n"/>
-      <c r="E20" s="0" t="n"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="0" t="n"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" tooltip="mailto:10000000017@uitest.com" display="10000000017@uitest.com" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -680,6 +680,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1010,10 +1078,14 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>10000000039@uitest.com</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="n"/>
+          <t>10000000046@uitest.com</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>1000008058</t>
+        </is>
+      </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
           <t>BHR</t>
@@ -1034,7 +1106,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>10000000040@uitest.com</t>
+          <t>10000000047@uitest.com</t>
         </is>
       </c>
       <c r="C3" s="0" t="n"/>
@@ -1048,7 +1120,7 @@
           <t>邀请码</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>中国</t>
         </is>

--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,21 +29,21 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -56,16 +56,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -80,29 +72,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -117,16 +88,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -141,9 +118,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,7 +149,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -178,181 +178,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,30 +369,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,31 +387,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,6 +417,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -469,6 +440,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,16 +489,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
@@ -507,115 +507,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -680,74 +680,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1015,7 +947,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1078,12 +1010,12 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>10000000046@uitest.com</t>
+          <t>10000000065@uitest.com</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>1000008058</t>
+          <t>1000008061</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -1106,7 +1038,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>10000000047@uitest.com</t>
+          <t>10000000066@uitest.com</t>
         </is>
       </c>
       <c r="C3" s="0" t="n"/>
@@ -1166,7 +1098,6 @@
       <c r="B9" s="0" t="n"/>
       <c r="C9" s="0" t="n"/>
       <c r="D9" s="0" t="n"/>
-      <c r="E9" s="0" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n"/>

--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>国家</t>
   </si>
@@ -64,22 +64,31 @@
     <t>CHN</t>
   </si>
   <si>
-    <t>+Gdea2zEybngAKqr+Jz7TgFKwooZcyQj5Sf6SnXvdqsOHcnNDE5ImIxftKiZ7QHOoP1PE6PKEPz952y/Epv1Sg==1583223302873</t>
+    <t>Zr+ogjkESC9YUtFtanFfz8gR/LQr24rtbYplawH3Qf8=</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>demoforex200</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Pro</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>demo_UAE_______</t>
+  </si>
+  <si>
+    <t>ECN</t>
+  </si>
+  <si>
+    <t>7XzKAV3AZWdRq0ti1+QauMgR/LQr24rtbYplawH3Qf8=</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Edge</t>
   </si>
 </sst>
 </file>
@@ -87,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -101,6 +110,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -109,8 +155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,6 +170,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -132,31 +186,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,8 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,61 +232,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,37 +269,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,145 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +460,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,6 +487,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -480,6 +507,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,23 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,34 +560,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -569,16 +578,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -587,119 +596,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -712,6 +721,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,7 +1052,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
@@ -1097,7 +1112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:13">
+    <row r="2" ht="28.5" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1120,23 +1135,23 @@
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1">
-        <v>200</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="5">
+        <v>100</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:13">
+    <row r="3" ht="28.5" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1157,42 +1172,27 @@
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1">
-        <v>200</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5">
+        <v>100</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="3:3">
       <c r="C4" s="1">
         <v>1000003759</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1">
-        <v>200</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -1035,10 +1035,10 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>00088000001011@uitest.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+          <t>00088000012@uitest.com</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>1000006201</t>
         </is>
@@ -1059,22 +1059,22 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>000000001012@uitest.com</t>
+          <t>00088000013@uitest.com</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>专属链接</t>
+          <t>直客</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr"/>
@@ -1083,22 +1083,22 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>000000001013@uitest.com</t>
+          <t>00088000014@uitest.com</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>专属链接</t>
+          <t>直客</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr"/>
@@ -1107,17 +1107,17 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>越南</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>000000001014@uitest.com</t>
+          <t>00088000015@uitest.com</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -1131,22 +1131,22 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>南韩</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>0000000005@uitest.com</t>
+          <t>00088000016@uitest.com</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>专属链接</t>
+          <t>直客</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr"/>
@@ -1155,22 +1155,22 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>0000000006@uitest.com</t>
+          <t>00088000017@uitest.com</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>专属链接</t>
+          <t>直客</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr"/>
@@ -1179,17 +1179,17 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>0000000007@uitest.com</t>
+          <t>00088000018@uitest.com</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -1203,22 +1203,22 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>新加坡</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>0000000008@uitest.com</t>
+          <t>00088000019@uitest.com</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>专属链接</t>
+          <t>直客</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr"/>
@@ -1227,22 +1227,22 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>中国台湾</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>0000000009@uitest.com</t>
+          <t>00088000020@uitest.com</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>专属链接</t>
+          <t>直客</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>专属链接</t>
+          <t>直客</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>专属链接</t>
+          <t>直客</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr"/>

--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>国家</t>
   </si>
@@ -55,31 +55,22 @@
     <t>点差</t>
   </si>
   <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>00112400010@uitest.com</t>
-  </si>
-  <si>
-    <t>1000006256</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>3sTGC4n+iuR8TUigWY2skk56XbRbkCcuVA/d6/yQjnM=</t>
-  </si>
-  <si>
     <t>南韩</t>
   </si>
   <si>
-    <t>00112400011@uitest.com</t>
+    <t>00112400046@uitest.com</t>
+  </si>
+  <si>
+    <t>1200008451</t>
   </si>
   <si>
     <t>KOR</t>
   </si>
   <si>
     <t>直客</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -101,6 +92,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -110,12 +153,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,16 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,100 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,18 +245,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,55 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,103 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,31 +439,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -502,6 +478,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -519,32 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -565,145 +556,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1024,13 +1012,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="H8 D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
@@ -1086,7 +1074,7 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
@@ -1096,34 +1084,16 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="00112400010@uitest.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="00112400011@uitest.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/demo/registration_process/test_excel_data/account_number.xlsx
+++ b/demo/registration_process/test_excel_data/account_number.xlsx
@@ -58,10 +58,10 @@
     <t>南韩</t>
   </si>
   <si>
-    <t>00112400046@uitest.com</t>
-  </si>
-  <si>
-    <t>1200008451</t>
+    <t>0002022041108@uitest.com</t>
+  </si>
+  <si>
+    <t>1200008603</t>
   </si>
   <si>
     <t>KOR</t>
@@ -78,8 +78,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -92,11 +92,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,6 +123,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -116,14 +139,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,21 +192,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,23 +200,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,45 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -245,13 +245,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,169 +401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +436,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,80 +531,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -544,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -556,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,13 +1015,13 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="1" customWidth="1"/>
